--- a/supplementary/S5_Table.xlsx
+++ b/supplementary/S5_Table.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maylis\Dropbox\Systematic review\Supplementary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maylis\Documents\cfss\RabiesScopingReview\supplementary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97A2976A-C2A0-49BE-880E-8CFEE605EDD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA01173E-447C-495D-A10C-C1B45050D56B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="3156" windowWidth="17280" windowHeight="9060" xr2:uid="{33826058-66E8-48D6-A3DF-C853FA87872D}"/>
+    <workbookView xWindow="-108" yWindow="372" windowWidth="23256" windowHeight="12696" xr2:uid="{33826058-66E8-48D6-A3DF-C853FA87872D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="ST5" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
   <si>
     <t>Viral lineages</t>
   </si>
@@ -238,9 +238,6 @@
     <t>Bourhy et al., 2008</t>
   </si>
   <si>
-    <t>R0</t>
-  </si>
-  <si>
     <t>Africa 2</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
   </si>
   <si>
     <t>Talbi et al., 2009</t>
-  </si>
-  <si>
-    <t>Nucleotide substitution rate</t>
   </si>
   <si>
     <t>Africa 1</t>
@@ -1704,9 +1698,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64594D17-A111-49BB-8E45-BD741B01F832}">
-  <dimension ref="A1:AA28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1721,9 +1717,9 @@
     <col min="9" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1733,7 +1729,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1743,7 +1739,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:27" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +1768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:27" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1800,275 +1796,269 @@
       <c r="I4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AA4" s="11" t="s">
+    </row>
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:9" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="AA5" s="11" t="s">
+      <c r="B6" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="C6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="H6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="8" t="s">
+    </row>
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="D7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="8" t="s">
+    </row>
+    <row r="8" spans="1:9" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="8" t="s">
+    </row>
+    <row r="9" spans="1:9" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="D10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="8" t="s">
+    </row>
+    <row r="11" spans="1:9" s="10" customFormat="1" ht="50.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="D11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" s="10" customFormat="1" ht="50.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="8" t="s">
+    </row>
+    <row r="12" spans="1:9" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="D12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="8" t="s">
+    </row>
+    <row r="13" spans="1:9" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -2076,94 +2066,94 @@
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="D15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="7" t="s">
+    </row>
+    <row r="16" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="9" t="s">
+      <c r="D16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>12</v>
@@ -2181,15 +2171,15 @@
         <v>12</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>12</v>
@@ -2198,135 +2188,135 @@
         <v>12</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="I18" s="9" t="s">
         <v>62</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="I19" s="9" t="s">
         <v>67</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="13" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="H20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="E21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="I22" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2334,27 +2324,27 @@
     </row>
     <row r="24" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/supplementary/S5_Table.xlsx
+++ b/supplementary/S5_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maylis\Documents\cfss\RabiesScopingReview\supplementary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maylis\Dropbox\Systematic review\Supplementary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA01173E-447C-495D-A10C-C1B45050D56B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7129414-6E34-4F64-9EDD-DA0E1CDD913D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="372" windowWidth="23256" windowHeight="12696" xr2:uid="{33826058-66E8-48D6-A3DF-C853FA87872D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="90">
   <si>
     <t>Viral lineages</t>
   </si>
@@ -238,6 +238,9 @@
     <t>Bourhy et al., 2008</t>
   </si>
   <si>
+    <t>R0</t>
+  </si>
+  <si>
     <t>Africa 2</t>
   </si>
   <si>
@@ -246,6 +249,9 @@
   </si>
   <si>
     <t>Talbi et al., 2009</t>
+  </si>
+  <si>
+    <t>Nucleotide substitution rate</t>
   </si>
   <si>
     <t>Africa 1</t>
@@ -358,9 +364,6 @@
     <t>Meng et al., 2011</t>
   </si>
   <si>
-    <t>Brazilian</t>
-  </si>
-  <si>
     <r>
       <t>1.519e-3</t>
     </r>
@@ -549,9 +552,6 @@
     <t>Tohma et al., 2014</t>
   </si>
   <si>
-    <t>Tanzanian</t>
-  </si>
-  <si>
     <t>whole-genome</t>
   </si>
   <si>
@@ -618,9 +618,6 @@
   </si>
   <si>
     <t>Zhang et al., 2017</t>
-  </si>
-  <si>
-    <t>Chinese</t>
   </si>
   <si>
     <t>2.4e-4 (1.5e-4 - 3.2e-4)
@@ -730,9 +727,6 @@
     <t>Brunker et al., 2018</t>
   </si>
   <si>
-    <t>Yunnan</t>
-  </si>
-  <si>
     <t>N, G</t>
   </si>
   <si>
@@ -805,9 +799,6 @@
     <t>Wang et al., 2019</t>
   </si>
   <si>
-    <t>Middle East</t>
-  </si>
-  <si>
     <t>2.13e-4 (1.88e-4 - 2.35e-4)</t>
   </si>
   <si>
@@ -953,6 +944,12 @@
   </si>
   <si>
     <t>S5 Table. Detailed list of the estimated parameters in phylodynamic models.</t>
+  </si>
+  <si>
+    <t>Africa 1b</t>
+  </si>
+  <si>
+    <t>SEA-1, SEA-2, SEA-3</t>
   </si>
 </sst>
 </file>
@@ -1698,10 +1695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64594D17-A111-49BB-8E45-BD741B01F832}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1717,9 +1714,9 @@
     <col min="9" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1729,7 +1726,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1739,7 +1736,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" s="6" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1768,7 +1765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>9</v>
       </c>
@@ -1796,16 +1793,19 @@
       <c r="I4" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="AA4" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>12</v>
@@ -1823,15 +1823,18 @@
         <v>12</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="AA5" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="10" customFormat="1" ht="102" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>12</v>
@@ -1840,30 +1843,30 @@
         <v>12</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>12</v>
@@ -1881,18 +1884,18 @@
         <v>12</v>
       </c>
       <c r="I7" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="C8" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>12</v>
@@ -1910,18 +1913,18 @@
         <v>12</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>12</v>
@@ -1939,18 +1942,18 @@
         <v>12</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>12</v>
@@ -1968,24 +1971,24 @@
         <v>12</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="10" customFormat="1" ht="50.4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="10" customFormat="1" ht="50.4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>12</v>
@@ -1997,18 +2000,18 @@
         <v>12</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>12</v>
@@ -2026,12 +2029,12 @@
         <v>12</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>43</v>
@@ -2058,7 +2061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>9</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>48</v>
       </c>
@@ -2116,12 +2119,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>53</v>
@@ -2147,39 +2150,39 @@
     </row>
     <row r="17" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>12</v>
@@ -2188,135 +2191,135 @@
         <v>12</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="9" t="s">
         <v>66</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="13" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="H20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="E21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="I22" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2324,27 +2327,27 @@
     </row>
     <row r="24" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/supplementary/S5_Table.xlsx
+++ b/supplementary/S5_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maylis\Dropbox\Systematic review\Supplementary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maylis\Documents\cfss\RabiesScopingReview\supplementary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7129414-6E34-4F64-9EDD-DA0E1CDD913D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5533FEE-53AB-4546-8A8C-7465573467CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="372" windowWidth="23256" windowHeight="12696" xr2:uid="{33826058-66E8-48D6-A3DF-C853FA87872D}"/>
   </bookViews>
@@ -404,139 +404,6 @@
     <t>6.81e-4 (6.66e-4 - 6.96e-4)</t>
   </si>
   <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Overall</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 12.88</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-v</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Dogs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> = 30.5</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cerdocyon thous</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 9.0</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color theme="4"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>b</t>
-    </r>
-  </si>
-  <si>
     <t>Carnieli et al., 2013</t>
   </si>
   <si>
@@ -950,6 +817,130 @@
   </si>
   <si>
     <t>SEA-1, SEA-2, SEA-3</t>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Overall</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 12.88</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Dogs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 30.5</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">b
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cerdocyon thous</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 9.0</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="4"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>b</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1697,8 +1688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64594D17-A111-49BB-8E45-BD741B01F832}">
   <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,7 +1707,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1988,77 +1979,77 @@
         <v>12</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:27" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:27" s="10" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.25">
@@ -2069,54 +2060,54 @@
         <v>10</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:27" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>51</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:27" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
@@ -2127,25 +2118,25 @@
         <v>25</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>53</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
@@ -2156,25 +2147,25 @@
         <v>10</v>
       </c>
       <c r="C17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="10" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
@@ -2191,106 +2182,106 @@
         <v>12</v>
       </c>
       <c r="E18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="G18" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="I18" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="13" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="8" t="s">
+      <c r="F20" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="G20" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="8" t="s">
+      <c r="H20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="10" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="E21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="10" customFormat="1" ht="52.8" x14ac:dyDescent="0.25">
@@ -2298,28 +2289,28 @@
         <v>12</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="I22" s="9" t="s">
         <v>80</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -2327,27 +2318,27 @@
     </row>
     <row r="24" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
